--- a/theo/outputs/ES/correlations.xlsx
+++ b/theo/outputs/ES/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.7720720627042288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.114317225335577</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1463571333327807</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.6201596613997473</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.7379769693804041</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05820976721435737</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05726110859407449</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3198465269307845</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3132638098200187</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05820976721435737</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05726110859407449</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3198465269307845</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3132638098200187</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.1224153716782078</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.1534993905797856</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.1241178538354192</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.7720720627042288</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.03635206017128301</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.07739697110336302</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.3050449891301639</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.6115531951402289</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.113600529012683</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1124054910243477</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.6624761856412639</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.6557098570128199</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.02786934152121225</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.0290632614214927</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.6441472911153006</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.6373832675414026</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.07727306697319029</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.1460699991592569</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.08472129956577704</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.114317225335577</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.03635206017128301</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.6949829182237284</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.07448298472479366</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.006715601975624022</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.09637429072568986</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.09669121388323441</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.01412151458132039</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.01376706056043154</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.003788516709719861</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.003648777756825838</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.02355252577065244</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.02318776903587297</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4029971178063186</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.3119583110091029</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9402903107028716</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1463571333327807</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.07739697110336302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.6949829182237284</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2548206210783221</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.05863023815379488</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.08919468504513062</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.08855882043846219</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.04057722834462343</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.04046838737939991</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>-0.03949317253815944</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>-0.03956072599459592</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.04321151361031978</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.04310060542271258</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.3779776048025942</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.2841563723507961</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.5912940243202301</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.6201596613997473</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.3050449891301639</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.07448298472479366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2548206210783221</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.2300843546557971</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.01274517348950957</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.01305662359923142</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.1608694443071632</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.1598489901953735</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.01510431958958894</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.01513128803525802</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.1610690044316001</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.1599967366005317</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2284404859694429</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.2618062447815163</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1917977798063265</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.7379769693804041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.6115531951402289</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.006715601975624022</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.05863023815379488</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.2300843546557971</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.01961150977084256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.02103697530552128</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.1875375068301685</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.1963567022135322</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>0.006444905871726319</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>0.006001481924463488</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.182563015846164</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.1912598261384129</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.06597959952112253</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>-0.03690974955718173</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.04419619532699171</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05820976721435737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.113600529012683</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.09637429072568986</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.08919468504513062</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.01274517348950957</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.01961150977084256</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.999940651227945</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1560485529379596</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.15575906799165</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.06724429090840575</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.06767142241132783</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1446463509204475</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1443966145502216</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.01480227052727497</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.02874047470918475</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.07970203614463239</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05726110859407449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1124054910243477</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.09669121388323441</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.08855882043846219</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.01305662359923142</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.02103697530552128</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.999940651227945</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1558855731808748</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1556127970615989</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.06731129013716083</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.0677402357766638</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1444898743595739</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1442564504121546</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.01603893772876538</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.02747251787903004</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.0798603395839242</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3198465269307845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.6624761856412639</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.01412151458132039</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.04057722834462343</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.1608694443071632</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.1875375068301685</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1560485529379596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1558855731808748</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999494851216705</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.0460360878159928</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.04712826041631706</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9678548830270982</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9677015060158066</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.03346529250264261</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.1463971096388382</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.06333581831727837</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3132638098200187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.6557098570128199</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.01376706056043154</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.04046838737939991</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.1598489901953735</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.1963567022135322</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.15575906799165</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1556127970615989</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999494851216705</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.04586357940965499</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.04695355191002214</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9677713575680309</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9677160175417603</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.03378314928553611</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.1470601737820632</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.06344333633867777</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05820976721435737</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.02786934152121225</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.003788516709719861</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>-0.03949317253815944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.01510431958958894</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>0.006444905871726319</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.06724429090840575</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.06731129013716083</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.0460360878159928</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.04586357940965499</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.999940651227945</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1560485529379596</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.15575906799165</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.04210395964800887</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.0430196852395228</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.003467885342760111</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05726110859407449</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.0290632614214927</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.003648777756825838</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>-0.03956072599459592</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.01513128803525802</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>0.006001481924463488</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.06767142241132783</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.0677402357766638</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.04712826041631706</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.04695355191002214</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.999940651227945</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1558855731808748</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1556127970615989</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.04199446752509214</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.04273403803402616</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.00368672314428263</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3198465269307845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.6441472911153006</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.02355252577065244</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.04321151361031978</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.1610690044316001</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.182563015846164</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1446463509204475</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1444898743595739</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9678548830270982</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9677713575680309</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1560485529379596</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1558855731808748</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999494851216705</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.02662330767932881</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.1472915713377168</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.05550314840447348</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3132638098200187</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.6373832675414026</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.02318776903587297</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.04310060542271258</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.1599967366005317</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.1912598261384129</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1443966145502216</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1442564504121546</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9677015060158066</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9677160175417603</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.15575906799165</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1556127970615989</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999494851216705</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.02695292359219182</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.1478648589047705</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.05563530593031301</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.1224153716782078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.07727306697319029</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4029971178063186</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.3779776048025942</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2284404859694429</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.06597959952112253</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.01480227052727497</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.01603893772876538</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.03346529250264261</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.03378314928553611</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.04210395964800887</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.04199446752509214</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.02662330767932881</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.02695292359219182</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.7633599901613849</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4580939864178337</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.1534993905797856</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.1460699991592569</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.3119583110091029</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.2841563723507961</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.2618062447815163</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>-0.03690974955718173</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.02874047470918475</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.02747251787903004</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.1463971096388382</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.1470601737820632</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.0430196852395228</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.04273403803402616</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.1472915713377168</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.1478648589047705</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.7633599901613849</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.3543727545229726</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.1241178538354192</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.08472129956577704</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9402903107028716</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.5912940243202301</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1917977798063265</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.04419619532699171</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.07970203614463239</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.0798603395839242</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.06333581831727837</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.06344333633867777</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.003467885342760111</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.00368672314428263</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.05550314840447348</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.05563530593031301</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4580939864178337</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.3543727545229726</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.6732536878286574</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.440156757175778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>0.4523343868394093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.7462483999581271</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.7516262708769531</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02757290029392075</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02771808535637608</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2005433946531936</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1991681841440041</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02757290029392075</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02771808535637608</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2005433946531936</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1991681841440041</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.05430211821178531</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.263055141392763</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.2278691871485632</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.6732536878286574</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.3486668429514931</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.3758532359588175</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.6271635123455792</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8632851982751178</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.04126775165815266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.04136070428188473</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2160561138470634</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2188745236365578</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04960786629001717</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.04949037521047799</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2000489529681287</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.202904961171764</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.06583613657145578</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.2159686466593148</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.1681204760115371</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.440156757175778</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.3486668429514931</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.7728383202425909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.5313534141625191</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.3212537898756866</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.002677804044771384</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.004613476580318889</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.003971020181431988</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.005119287605959014</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.01405427351747621</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.01361604728940334</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.002313202478022798</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.003418564106238779</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.3365371443100424</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>-0.1032566845887368</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.1917579998152368</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>0.4523343868394093</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.3758532359588175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.7728383202425909</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.6091604947987884</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.3694926958569155</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.03365929202566948</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.03410288978710829</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.005894476135146282</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.005105496085772818</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.00447440030748986</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.003765757589133398</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.006649504223736995</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.005815863988507226</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.337497900209206</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.2152240592373065</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.00668339428044102</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.7462483999581271</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.6271635123455792</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.5313534141625191</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.6091604947987884</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.6065605025469728</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.01210115363480015</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.01172535620484715</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.00948919194962752</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.01072600925396857</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.01314419618078979</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.01264157867928538</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.009697398938379193</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.01091012433399469</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1157437802692238</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.306108198759181</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.3182416974980845</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.7516262708769531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8632851982751178</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.3212537898756866</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.3694926958569155</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.6065605025469728</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04621845575895695</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04593153037855403</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3062774533250049</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.303411678084145</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.04883926393942965</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.04824985890476376</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3067358121700264</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3038165901046582</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.0717545057980392</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.1658587719119606</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.1366309077588854</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02757290029392075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.04126775165815266</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.002677804044771384</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.03365929202566948</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.01210115363480015</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04621845575895695</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997295425794566</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1742965746844327</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1738842940297057</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.0242423395983127</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.02472272343295625</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1692677857747264</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1688465825042194</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.05061210910854021</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>0.04125274504628581</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.052085558729546</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02771808535637608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.04136070428188473</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.004613476580318889</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.03410288978710829</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.01172535620484715</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04593153037855403</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997295425794566</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1738511797070445</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1735130409933753</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.02452423371227334</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.02502639743753621</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1688105247890911</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1684595124574697</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.0483058251992675</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>0.04067381140987733</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.0519088513662094</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2005433946531936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2160561138470634</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.003971020181431988</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.005894476135146282</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.00948919194962752</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3062774533250049</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1742965746844327</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1738511797070445</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997719018538338</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.005286644593971012</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.004317735199693476</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9710420996155814</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9707922150025201</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.01463699124980021</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>0.08603978680878699</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.05277651838520549</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1991681841440041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2188745236365578</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.005119287605959014</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.005105496085772818</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.01072600925396857</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.303411678084145</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1738842940297057</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1735130409933753</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997719018538338</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.004101176880154028</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.00311274336709656</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9706889300667383</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9708799871757205</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.01516950579076091</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>0.08414616362908874</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.05110191617887982</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02757290029392075</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04960786629001717</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.01405427351747621</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.00447440030748986</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.01314419618078979</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.04883926393942965</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.0242423395983127</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.02452423371227334</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.005286644593971012</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.004101176880154028</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997295425794566</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1742965746844327</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1738842940297057</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.01077665147693553</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.05058431702222711</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.01249922909034467</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02771808535637608</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.04949037521047799</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.01361604728940334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.003765757589133398</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.01264157867928538</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.04824985890476376</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.02472272343295625</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.02502639743753621</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.004317735199693476</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.00311274336709656</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997295425794566</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1738511797070445</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1735130409933753</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.01119853408407774</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.04805361683790108</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.01171921712799208</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2005433946531936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2000489529681287</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.002313202478022798</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.006649504223736995</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.009697398938379193</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3067358121700264</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1692677857747264</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1688105247890911</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9710420996155814</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9706889300667383</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1742965746844327</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1738511797070445</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997719018538338</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.01303010747928641</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>0.02319255097078187</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.05391433131051573</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1991681841440041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.202904961171764</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.003418564106238779</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.005815863988507226</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.01091012433399469</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3038165901046582</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1688465825042194</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1684595124574697</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9707922150025201</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9708799871757205</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1738842940297057</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1735130409933753</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997719018538338</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.01344343995910829</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>0.02246369303620218</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.05225441615367202</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.05430211821178531</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.06583613657145578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.3365371443100424</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.337497900209206</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1157437802692238</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.0717545057980392</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.05061210910854021</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.0483058251992675</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.01463699124980021</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.01516950579076091</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.01077665147693553</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.01119853408407774</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.01303010747928641</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.01344343995910829</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.1661514313363595</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.2943579002050227</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.263055141392763</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.2159686466593148</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>-0.1032566845887368</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.2152240592373065</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.306108198759181</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.1658587719119606</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>0.04125274504628581</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>0.04067381140987733</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>0.08603978680878699</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>0.08414616362908874</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.05058431702222711</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.04805361683790108</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>0.02319255097078187</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>0.02246369303620218</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.1661514313363595</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4109198172804852</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.2278691871485632</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.1681204760115371</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.1917579998152368</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.00668339428044102</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.3182416974980845</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.1366309077588854</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.052085558729546</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.0519088513662094</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.05277651838520549</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.05110191617887982</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.01249922909034467</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.01171921712799208</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.05391433131051573</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.05225441615367202</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.2943579002050227</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4109198172804852</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.2063489794337846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.5514116191889329</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.5461266858148317</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.7158962920641465</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.2045140160694342</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.009668185912835661</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.009448074850217146</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.03722671794608623</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.0362237110861206</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.009668185912835661</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.009448074850217146</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.03722671794608623</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.0362237110861206</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.02737942846491712</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.05117935403195272</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>-0.01208126606774952</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.2063489794337846</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>0.0498496526052179</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>0.03300081337143242</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>0.04060234962660157</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.915331220224388</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03685320474812297</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03658143958150883</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1626421223124332</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.162394237643873</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03587736743521189</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03609852464420834</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1490734780576009</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1488462786786381</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.03835567222623706</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.02128076765486714</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.08359002283190707</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.5514116191889329</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>0.0498496526052179</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.8513033412364315</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.7306219049224648</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>0.06421120748376218</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.0009488425812666975</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.0002838363132303027</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02913968898386162</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02995968493482571</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.003673381945451022</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.003295921785056037</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.02846665395223223</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.02928367823035042</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.2974200383647246</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>-0.06892714428557165</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.05486470252911201</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.5461266858148317</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>0.03300081337143242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.8513033412364315</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.7633435207524979</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>0.04235855706368327</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.01340360731989099</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.01314245008669471</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.02440677075035991</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.02516911465337633</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.002005613701134045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.001530526377268855</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>-0.02405408707618294</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>-0.02484176506291915</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.2477359456553635</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.09904072489261413</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>-0.003935865354839843</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.7158962920641465</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>0.04060234962660157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.7306219049224648</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.7633435207524979</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>0.05547351693679934</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>-0.004226970792249839</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>-0.004199152385800048</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>-0.03825618393592944</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>-0.03910210995344888</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.004042863294876532</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.003984351779592168</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>-0.03824342624196864</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>-0.03908073300328343</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.03993542303990019</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1200665020256432</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.07786544692335159</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.2045140160694342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.915331220224388</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>0.06421120748376218</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>0.04235855706368327</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>0.05547351693679934</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.04090775833522577</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.04093116931418632</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.248468485953747</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2484135226682108</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03560452286144241</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03537513041549678</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.2475548330694678</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.2474547613675605</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.04148843451013932</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.007830718100872325</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.1145261424252494</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.009668185912835661</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03685320474812297</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.0009488425812666975</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.01340360731989099</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>-0.004226970792249839</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.04090775833522577</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9993040519043626</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1865862516566613</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1863018023813477</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.01001483771949851</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.009377968368776548</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.187984360345012</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1877119297566496</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.02521895225212176</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.002512616204548464</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.0127555927183694</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.009448074850217146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03658143958150883</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.0002838363132303027</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.01314245008669471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>-0.004199152385800048</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.04093116931418632</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9993040519043626</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1860675043134449</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1860205555195772</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.009771467851562295</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.009135408715516997</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1874445955620881</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1874135104190864</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.02354424924229045</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.0007670531708740003</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.01081259612786359</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.03722671794608623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1626421223124332</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02913968898386162</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.02440677075035991</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>-0.03825618393592944</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.248468485953747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1865862516566613</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1860675043134449</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9992690808908256</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.005252629348098769</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.006111025106787906</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.964668702613104</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9639010618855171</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.009394503532255977</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.03221138741187948</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.07954422252404118</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.0362237110861206</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.162394237643873</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02995968493482571</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.02516911465337633</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>-0.03910210995344888</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2484135226682108</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1863018023813477</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1860205555195772</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9992690808908256</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.005684143183892398</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.006557673207030975</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9639011275820123</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9645450216220853</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.009521419245207911</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.03278597451682248</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.07134314567021022</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.009668185912835661</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03587736743521189</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.003673381945451022</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.002005613701134045</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.004042863294876532</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03560452286144241</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.01001483771949851</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.009771467851562295</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.005252629348098769</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.005684143183892398</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9993040519043626</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1865862516566613</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1863018023813477</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.005383275040083123</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.008854300044997496</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.001309202800016138</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.009448074850217146</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03609852464420834</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.003295921785056037</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.001530526377268855</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.003984351779592168</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03537513041549678</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.009377968368776548</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.009135408715516997</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.006111025106787906</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.006557673207030975</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9993040519043626</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1860675043134449</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1860205555195772</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.005461713015344502</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.007442701452431471</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>-4.734670229414901e-06</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.03722671794608623</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1490734780576009</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.02846665395223223</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>-0.02405408707618294</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>-0.03824342624196864</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.2475548330694678</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.187984360345012</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1874445955620881</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.964668702613104</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9639011275820123</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1865862516566613</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1860675043134449</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9992690808908256</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.008581794434498797</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.0255797798287816</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.07821724409187239</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.0362237110861206</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1488462786786381</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.02928367823035042</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>-0.02484176506291915</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>-0.03908073300328343</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.2474547613675605</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1877119297566496</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1874135104190864</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9639010618855171</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9645450216220853</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1863018023813477</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1860205555195772</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9992690808908256</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.008666668381203686</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.02647884126751814</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.06973547722943264</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.02737942846491712</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.03835567222623706</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.2974200383647246</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.2477359456553635</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.03993542303990019</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.04148843451013932</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.02521895225212176</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.02354424924229045</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.009394503532255977</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.009521419245207911</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.005383275040083123</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.005461713015344502</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.008581794434498797</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.008666668381203686</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.05260141912949814</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.1084715676779692</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.05117935403195272</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.02128076765486714</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>-0.06892714428557165</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.09904072489261413</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1200665020256432</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.007830718100872325</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.002512616204548464</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.0007670531708740003</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.03221138741187948</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.03278597451682248</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.008854300044997496</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.007442701452431471</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.0255797798287816</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.02647884126751814</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.05260141912949814</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.5478272357524768</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>-0.01208126606774952</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.08359002283190707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.05486470252911201</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>-0.003935865354839843</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.07786544692335159</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.1145261424252494</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.0127555927183694</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.01081259612786359</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.07954422252404118</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.07134314567021022</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.001309202800016138</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>-4.734670229414901e-06</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.07821724409187239</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.06973547722943264</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.1084715676779692</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.5478272357524768</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
